--- a/README_追記.xlsx
+++ b/README_追記.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="162">
   <si>
     <t>＃アプリケーション名</t>
     <rPh sb="9" eb="10">
@@ -1069,6 +1069,28 @@
   </si>
   <si>
     <t>node.js 12.22.9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・AWSにて環境構築</t>
+    <rPh sb="6" eb="8">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EC2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RDS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1076,7 +1098,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1114,6 +1136,15 @@
       <color theme="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1195,7 +1226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1230,6 +1261,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1253,14 +1293,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1428,6 +1462,333 @@
         <a:xfrm>
           <a:off x="1924050" y="39709725"/>
           <a:ext cx="809625" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>50038</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5495925" y="40290751"/>
+          <a:ext cx="5984113" cy="2343150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>44321</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="40290750"/>
+          <a:ext cx="5073521" cy="2619375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>39259</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="43205400"/>
+          <a:ext cx="5068459" cy="2219325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>28133</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5476875" y="43233976"/>
+          <a:ext cx="3466658" cy="2228850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>220322</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="45796200"/>
+          <a:ext cx="5249522" cy="2686050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1933575" y="40947975"/>
+          <a:ext cx="1400175" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:noFill/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3333750" y="41100375"/>
+          <a:ext cx="2143125" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1722,10 +2083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AF216"/>
+  <dimension ref="B2:AF267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1989,15 +2350,15 @@
       </c>
     </row>
     <row r="60" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="13"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="16"/>
       <c r="I60" s="6" t="s">
         <v>6</v>
       </c>
@@ -2008,16 +2369,16 @@
         <v>10</v>
       </c>
       <c r="N60" s="6"/>
-      <c r="O60" s="14" t="s">
+      <c r="O60" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="15"/>
-      <c r="R60" s="16" t="s">
+      <c r="P60" s="18"/>
+      <c r="Q60" s="18"/>
+      <c r="R60" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="S60" s="17"/>
-      <c r="T60" s="18"/>
+      <c r="S60" s="20"/>
+      <c r="T60" s="21"/>
       <c r="U60" s="6" t="s">
         <v>13</v>
       </c>
@@ -2238,12 +2599,12 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="4"/>
-      <c r="I66" s="19" t="s">
+      <c r="I66" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="21"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="13"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
       <c r="O66" s="6" t="s">
@@ -2279,12 +2640,12 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="4"/>
-      <c r="I67" s="19" t="s">
+      <c r="I67" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J67" s="20"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="21"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="13"/>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
       <c r="O67" s="6" t="s">
@@ -2320,12 +2681,12 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="4"/>
-      <c r="I68" s="19" t="s">
+      <c r="I68" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J68" s="20"/>
-      <c r="K68" s="20"/>
-      <c r="L68" s="21"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="13"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
       <c r="O68" s="6" t="s">
@@ -2579,15 +2940,15 @@
       </c>
     </row>
     <row r="77" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="13"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="16"/>
       <c r="I77" s="6" t="s">
         <v>6</v>
       </c>
@@ -2598,16 +2959,16 @@
         <v>10</v>
       </c>
       <c r="N77" s="6"/>
-      <c r="O77" s="14" t="s">
+      <c r="O77" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
-      <c r="R77" s="16" t="s">
+      <c r="P77" s="18"/>
+      <c r="Q77" s="18"/>
+      <c r="R77" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="S77" s="17"/>
-      <c r="T77" s="18"/>
+      <c r="S77" s="20"/>
+      <c r="T77" s="21"/>
       <c r="U77" s="6" t="s">
         <v>13</v>
       </c>
@@ -3025,15 +3386,15 @@
       </c>
     </row>
     <row r="90" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="13"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="16"/>
       <c r="I90" s="6" t="s">
         <v>6</v>
       </c>
@@ -3044,16 +3405,16 @@
         <v>10</v>
       </c>
       <c r="N90" s="6"/>
-      <c r="O90" s="14" t="s">
+      <c r="O90" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="P90" s="15"/>
-      <c r="Q90" s="15"/>
-      <c r="R90" s="16" t="s">
+      <c r="P90" s="18"/>
+      <c r="Q90" s="18"/>
+      <c r="R90" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="S90" s="17"/>
-      <c r="T90" s="18"/>
+      <c r="S90" s="20"/>
+      <c r="T90" s="21"/>
       <c r="U90" s="6" t="s">
         <v>13</v>
       </c>
@@ -3272,15 +3633,15 @@
       </c>
     </row>
     <row r="98" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="13"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="16"/>
       <c r="I98" s="6" t="s">
         <v>6</v>
       </c>
@@ -3291,16 +3652,16 @@
         <v>10</v>
       </c>
       <c r="N98" s="6"/>
-      <c r="O98" s="14" t="s">
+      <c r="O98" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="P98" s="15"/>
-      <c r="Q98" s="15"/>
-      <c r="R98" s="16" t="s">
+      <c r="P98" s="18"/>
+      <c r="Q98" s="18"/>
+      <c r="R98" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="S98" s="17"/>
-      <c r="T98" s="18"/>
+      <c r="S98" s="20"/>
+      <c r="T98" s="21"/>
       <c r="U98" s="6" t="s">
         <v>13</v>
       </c>
@@ -3634,15 +3995,15 @@
       </c>
     </row>
     <row r="109" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="13"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="16"/>
       <c r="I109" s="6" t="s">
         <v>6</v>
       </c>
@@ -3653,16 +4014,16 @@
         <v>10</v>
       </c>
       <c r="N109" s="6"/>
-      <c r="O109" s="14" t="s">
+      <c r="O109" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="P109" s="15"/>
-      <c r="Q109" s="15"/>
-      <c r="R109" s="16" t="s">
+      <c r="P109" s="18"/>
+      <c r="Q109" s="18"/>
+      <c r="R109" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="S109" s="17"/>
-      <c r="T109" s="18"/>
+      <c r="S109" s="20"/>
+      <c r="T109" s="21"/>
       <c r="U109" s="6" t="s">
         <v>13</v>
       </c>
@@ -3920,15 +4281,15 @@
       </c>
     </row>
     <row r="118" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
-      <c r="H118" s="13"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="16"/>
       <c r="I118" s="6" t="s">
         <v>6</v>
       </c>
@@ -3939,16 +4300,16 @@
         <v>10</v>
       </c>
       <c r="N118" s="6"/>
-      <c r="O118" s="14" t="s">
+      <c r="O118" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="P118" s="15"/>
-      <c r="Q118" s="15"/>
-      <c r="R118" s="16" t="s">
+      <c r="P118" s="18"/>
+      <c r="Q118" s="18"/>
+      <c r="R118" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="S118" s="17"/>
-      <c r="T118" s="18"/>
+      <c r="S118" s="20"/>
+      <c r="T118" s="21"/>
       <c r="U118" s="6" t="s">
         <v>13</v>
       </c>
@@ -4126,15 +4487,15 @@
       </c>
     </row>
     <row r="125" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="B125" s="11" t="s">
+      <c r="B125" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C125" s="12"/>
-      <c r="D125" s="12"/>
-      <c r="E125" s="12"/>
-      <c r="F125" s="12"/>
-      <c r="G125" s="12"/>
-      <c r="H125" s="13"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="16"/>
       <c r="I125" s="6" t="s">
         <v>6</v>
       </c>
@@ -4145,16 +4506,16 @@
         <v>10</v>
       </c>
       <c r="N125" s="6"/>
-      <c r="O125" s="14" t="s">
+      <c r="O125" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="P125" s="15"/>
-      <c r="Q125" s="15"/>
-      <c r="R125" s="16" t="s">
+      <c r="P125" s="18"/>
+      <c r="Q125" s="18"/>
+      <c r="R125" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="S125" s="17"/>
-      <c r="T125" s="18"/>
+      <c r="S125" s="20"/>
+      <c r="T125" s="21"/>
       <c r="U125" s="6" t="s">
         <v>13</v>
       </c>
@@ -4373,15 +4734,15 @@
       </c>
     </row>
     <row r="133" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="B133" s="11" t="s">
+      <c r="B133" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C133" s="12"/>
-      <c r="D133" s="12"/>
-      <c r="E133" s="12"/>
-      <c r="F133" s="12"/>
-      <c r="G133" s="12"/>
-      <c r="H133" s="13"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="16"/>
       <c r="I133" s="6" t="s">
         <v>6</v>
       </c>
@@ -4392,16 +4753,16 @@
         <v>10</v>
       </c>
       <c r="N133" s="6"/>
-      <c r="O133" s="14" t="s">
+      <c r="O133" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="P133" s="15"/>
-      <c r="Q133" s="15"/>
-      <c r="R133" s="16" t="s">
+      <c r="P133" s="18"/>
+      <c r="Q133" s="18"/>
+      <c r="R133" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="S133" s="17"/>
-      <c r="T133" s="18"/>
+      <c r="S133" s="20"/>
+      <c r="T133" s="21"/>
       <c r="U133" s="6" t="s">
         <v>13</v>
       </c>
@@ -4579,15 +4940,15 @@
       </c>
     </row>
     <row r="140" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C140" s="12"/>
-      <c r="D140" s="12"/>
-      <c r="E140" s="12"/>
-      <c r="F140" s="12"/>
-      <c r="G140" s="12"/>
-      <c r="H140" s="13"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="16"/>
       <c r="I140" s="6" t="s">
         <v>6</v>
       </c>
@@ -4598,16 +4959,16 @@
         <v>10</v>
       </c>
       <c r="N140" s="6"/>
-      <c r="O140" s="14" t="s">
+      <c r="O140" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="P140" s="15"/>
-      <c r="Q140" s="15"/>
-      <c r="R140" s="16" t="s">
+      <c r="P140" s="18"/>
+      <c r="Q140" s="18"/>
+      <c r="R140" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="S140" s="17"/>
-      <c r="T140" s="18"/>
+      <c r="S140" s="20"/>
+      <c r="T140" s="21"/>
       <c r="U140" s="6" t="s">
         <v>13</v>
       </c>
@@ -4826,15 +5187,15 @@
       </c>
     </row>
     <row r="148" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="B148" s="11" t="s">
+      <c r="B148" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C148" s="12"/>
-      <c r="D148" s="12"/>
-      <c r="E148" s="12"/>
-      <c r="F148" s="12"/>
-      <c r="G148" s="12"/>
-      <c r="H148" s="13"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="16"/>
       <c r="I148" s="6" t="s">
         <v>6</v>
       </c>
@@ -4845,16 +5206,16 @@
         <v>10</v>
       </c>
       <c r="N148" s="6"/>
-      <c r="O148" s="14" t="s">
+      <c r="O148" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="P148" s="15"/>
-      <c r="Q148" s="15"/>
-      <c r="R148" s="16" t="s">
+      <c r="P148" s="18"/>
+      <c r="Q148" s="18"/>
+      <c r="R148" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="S148" s="17"/>
-      <c r="T148" s="18"/>
+      <c r="S148" s="20"/>
+      <c r="T148" s="21"/>
       <c r="U148" s="6" t="s">
         <v>13</v>
       </c>
@@ -5231,15 +5592,15 @@
       </c>
     </row>
     <row r="160" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="B160" s="11" t="s">
+      <c r="B160" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C160" s="12"/>
-      <c r="D160" s="12"/>
-      <c r="E160" s="12"/>
-      <c r="F160" s="12"/>
-      <c r="G160" s="12"/>
-      <c r="H160" s="13"/>
+      <c r="C160" s="15"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="15"/>
+      <c r="H160" s="16"/>
       <c r="I160" s="6" t="s">
         <v>6</v>
       </c>
@@ -5250,16 +5611,16 @@
         <v>10</v>
       </c>
       <c r="N160" s="6"/>
-      <c r="O160" s="14" t="s">
+      <c r="O160" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="P160" s="15"/>
-      <c r="Q160" s="15"/>
-      <c r="R160" s="16" t="s">
+      <c r="P160" s="18"/>
+      <c r="Q160" s="18"/>
+      <c r="R160" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="S160" s="17"/>
-      <c r="T160" s="18"/>
+      <c r="S160" s="20"/>
+      <c r="T160" s="21"/>
       <c r="U160" s="6" t="s">
         <v>13</v>
       </c>
@@ -5437,15 +5798,15 @@
       </c>
     </row>
     <row r="167" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="B167" s="11" t="s">
+      <c r="B167" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C167" s="12"/>
-      <c r="D167" s="12"/>
-      <c r="E167" s="12"/>
-      <c r="F167" s="12"/>
-      <c r="G167" s="12"/>
-      <c r="H167" s="13"/>
+      <c r="C167" s="15"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="15"/>
+      <c r="G167" s="15"/>
+      <c r="H167" s="16"/>
       <c r="I167" s="6" t="s">
         <v>6</v>
       </c>
@@ -5456,16 +5817,16 @@
         <v>10</v>
       </c>
       <c r="N167" s="6"/>
-      <c r="O167" s="14" t="s">
+      <c r="O167" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="P167" s="15"/>
-      <c r="Q167" s="15"/>
-      <c r="R167" s="16" t="s">
+      <c r="P167" s="18"/>
+      <c r="Q167" s="18"/>
+      <c r="R167" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="S167" s="17"/>
-      <c r="T167" s="18"/>
+      <c r="S167" s="20"/>
+      <c r="T167" s="21"/>
       <c r="U167" s="6" t="s">
         <v>13</v>
       </c>
@@ -5573,12 +5934,12 @@
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
       <c r="H170" s="4"/>
-      <c r="I170" s="19" t="s">
+      <c r="I170" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J170" s="20"/>
-      <c r="K170" s="20"/>
-      <c r="L170" s="21"/>
+      <c r="J170" s="12"/>
+      <c r="K170" s="12"/>
+      <c r="L170" s="13"/>
       <c r="M170" s="6"/>
       <c r="N170" s="6"/>
       <c r="O170" s="6" t="s">
@@ -5718,44 +6079,517 @@
         <v>142</v>
       </c>
     </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B234" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B235" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B236" s="22"/>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B252" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B267" t="s">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="546">
-    <mergeCell ref="B172:H172"/>
-    <mergeCell ref="I172:L172"/>
-    <mergeCell ref="M172:N172"/>
-    <mergeCell ref="O172:Q172"/>
-    <mergeCell ref="R172:T172"/>
-    <mergeCell ref="U172:AF172"/>
-    <mergeCell ref="I170:L170"/>
-    <mergeCell ref="M170:N170"/>
-    <mergeCell ref="O170:Q170"/>
-    <mergeCell ref="R170:T170"/>
-    <mergeCell ref="U170:AF170"/>
-    <mergeCell ref="B170:H170"/>
-    <mergeCell ref="B169:H169"/>
-    <mergeCell ref="I169:L169"/>
-    <mergeCell ref="M169:N169"/>
-    <mergeCell ref="O169:Q169"/>
-    <mergeCell ref="R169:T169"/>
-    <mergeCell ref="U169:AF169"/>
-    <mergeCell ref="B171:H171"/>
-    <mergeCell ref="I171:L171"/>
-    <mergeCell ref="M171:N171"/>
-    <mergeCell ref="O171:Q171"/>
-    <mergeCell ref="R171:T171"/>
-    <mergeCell ref="U171:AF171"/>
-    <mergeCell ref="B167:H167"/>
-    <mergeCell ref="I167:L167"/>
-    <mergeCell ref="M167:N167"/>
-    <mergeCell ref="O167:Q167"/>
-    <mergeCell ref="R167:T167"/>
-    <mergeCell ref="U167:AF167"/>
-    <mergeCell ref="B168:H168"/>
-    <mergeCell ref="I168:L168"/>
-    <mergeCell ref="M168:N168"/>
-    <mergeCell ref="O168:Q168"/>
-    <mergeCell ref="R168:T168"/>
-    <mergeCell ref="U168:AF168"/>
+    <mergeCell ref="B164:H164"/>
+    <mergeCell ref="I164:L164"/>
+    <mergeCell ref="M164:N164"/>
+    <mergeCell ref="O164:Q164"/>
+    <mergeCell ref="R164:T164"/>
+    <mergeCell ref="U164:AF164"/>
+    <mergeCell ref="B162:H162"/>
+    <mergeCell ref="I162:L162"/>
+    <mergeCell ref="M162:N162"/>
+    <mergeCell ref="O162:Q162"/>
+    <mergeCell ref="R162:T162"/>
+    <mergeCell ref="U162:AF162"/>
+    <mergeCell ref="B163:H163"/>
+    <mergeCell ref="I163:L163"/>
+    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="O163:Q163"/>
+    <mergeCell ref="R163:T163"/>
+    <mergeCell ref="U163:AF163"/>
+    <mergeCell ref="B160:H160"/>
+    <mergeCell ref="I160:L160"/>
+    <mergeCell ref="M160:N160"/>
+    <mergeCell ref="O160:Q160"/>
+    <mergeCell ref="R160:T160"/>
+    <mergeCell ref="U160:AF160"/>
+    <mergeCell ref="B161:H161"/>
+    <mergeCell ref="I161:L161"/>
+    <mergeCell ref="M161:N161"/>
+    <mergeCell ref="O161:Q161"/>
+    <mergeCell ref="R161:T161"/>
+    <mergeCell ref="U161:AF161"/>
+    <mergeCell ref="B157:H157"/>
+    <mergeCell ref="I157:L157"/>
+    <mergeCell ref="M157:N157"/>
+    <mergeCell ref="O157:Q157"/>
+    <mergeCell ref="R157:T157"/>
+    <mergeCell ref="U157:AF157"/>
+    <mergeCell ref="B152:H152"/>
+    <mergeCell ref="I152:L152"/>
+    <mergeCell ref="M152:N152"/>
+    <mergeCell ref="O152:Q152"/>
+    <mergeCell ref="R152:T152"/>
+    <mergeCell ref="U152:AF152"/>
+    <mergeCell ref="B155:H155"/>
+    <mergeCell ref="I155:L155"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="O155:Q155"/>
+    <mergeCell ref="R155:T155"/>
+    <mergeCell ref="U155:AF155"/>
+    <mergeCell ref="B156:H156"/>
+    <mergeCell ref="I156:L156"/>
+    <mergeCell ref="M156:N156"/>
+    <mergeCell ref="O156:Q156"/>
+    <mergeCell ref="R156:T156"/>
+    <mergeCell ref="U156:AF156"/>
+    <mergeCell ref="B153:H153"/>
+    <mergeCell ref="I153:L153"/>
+    <mergeCell ref="M153:N153"/>
+    <mergeCell ref="O153:Q153"/>
+    <mergeCell ref="R153:T153"/>
+    <mergeCell ref="U153:AF153"/>
+    <mergeCell ref="B154:H154"/>
+    <mergeCell ref="I154:L154"/>
+    <mergeCell ref="M154:N154"/>
+    <mergeCell ref="O154:Q154"/>
+    <mergeCell ref="R154:T154"/>
+    <mergeCell ref="U154:AF154"/>
+    <mergeCell ref="B150:H150"/>
+    <mergeCell ref="I150:L150"/>
+    <mergeCell ref="M150:N150"/>
+    <mergeCell ref="O150:Q150"/>
+    <mergeCell ref="R150:T150"/>
+    <mergeCell ref="U150:AF150"/>
+    <mergeCell ref="B151:H151"/>
+    <mergeCell ref="I151:L151"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="O151:Q151"/>
+    <mergeCell ref="R151:T151"/>
+    <mergeCell ref="U151:AF151"/>
+    <mergeCell ref="B148:H148"/>
+    <mergeCell ref="I148:L148"/>
+    <mergeCell ref="M148:N148"/>
+    <mergeCell ref="O148:Q148"/>
+    <mergeCell ref="R148:T148"/>
+    <mergeCell ref="U148:AF148"/>
+    <mergeCell ref="B149:H149"/>
+    <mergeCell ref="I149:L149"/>
+    <mergeCell ref="M149:N149"/>
+    <mergeCell ref="O149:Q149"/>
+    <mergeCell ref="R149:T149"/>
+    <mergeCell ref="U149:AF149"/>
+    <mergeCell ref="B144:H144"/>
+    <mergeCell ref="I144:L144"/>
+    <mergeCell ref="M144:N144"/>
+    <mergeCell ref="O144:Q144"/>
+    <mergeCell ref="R144:T144"/>
+    <mergeCell ref="U144:AF144"/>
+    <mergeCell ref="B145:H145"/>
+    <mergeCell ref="I145:L145"/>
+    <mergeCell ref="M145:N145"/>
+    <mergeCell ref="O145:Q145"/>
+    <mergeCell ref="R145:T145"/>
+    <mergeCell ref="U145:AF145"/>
+    <mergeCell ref="B142:H142"/>
+    <mergeCell ref="I142:L142"/>
+    <mergeCell ref="M142:N142"/>
+    <mergeCell ref="O142:Q142"/>
+    <mergeCell ref="R142:T142"/>
+    <mergeCell ref="U142:AF142"/>
+    <mergeCell ref="B143:H143"/>
+    <mergeCell ref="I143:L143"/>
+    <mergeCell ref="M143:N143"/>
+    <mergeCell ref="O143:Q143"/>
+    <mergeCell ref="R143:T143"/>
+    <mergeCell ref="U143:AF143"/>
+    <mergeCell ref="B140:H140"/>
+    <mergeCell ref="I140:L140"/>
+    <mergeCell ref="M140:N140"/>
+    <mergeCell ref="O140:Q140"/>
+    <mergeCell ref="R140:T140"/>
+    <mergeCell ref="U140:AF140"/>
+    <mergeCell ref="B141:H141"/>
+    <mergeCell ref="I141:L141"/>
+    <mergeCell ref="M141:N141"/>
+    <mergeCell ref="O141:Q141"/>
+    <mergeCell ref="R141:T141"/>
+    <mergeCell ref="U141:AF141"/>
+    <mergeCell ref="B136:H136"/>
+    <mergeCell ref="I136:L136"/>
+    <mergeCell ref="M136:N136"/>
+    <mergeCell ref="O136:Q136"/>
+    <mergeCell ref="R136:T136"/>
+    <mergeCell ref="U136:AF136"/>
+    <mergeCell ref="B137:H137"/>
+    <mergeCell ref="I137:L137"/>
+    <mergeCell ref="M137:N137"/>
+    <mergeCell ref="O137:Q137"/>
+    <mergeCell ref="R137:T137"/>
+    <mergeCell ref="U137:AF137"/>
+    <mergeCell ref="B134:H134"/>
+    <mergeCell ref="I134:L134"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="O134:Q134"/>
+    <mergeCell ref="R134:T134"/>
+    <mergeCell ref="U134:AF134"/>
+    <mergeCell ref="B135:H135"/>
+    <mergeCell ref="I135:L135"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="O135:Q135"/>
+    <mergeCell ref="R135:T135"/>
+    <mergeCell ref="U135:AF135"/>
+    <mergeCell ref="B130:H130"/>
+    <mergeCell ref="I130:L130"/>
+    <mergeCell ref="M130:N130"/>
+    <mergeCell ref="O130:Q130"/>
+    <mergeCell ref="R130:T130"/>
+    <mergeCell ref="U130:AF130"/>
+    <mergeCell ref="B133:H133"/>
+    <mergeCell ref="I133:L133"/>
+    <mergeCell ref="M133:N133"/>
+    <mergeCell ref="O133:Q133"/>
+    <mergeCell ref="R133:T133"/>
+    <mergeCell ref="U133:AF133"/>
+    <mergeCell ref="B129:H129"/>
+    <mergeCell ref="I129:L129"/>
+    <mergeCell ref="M129:N129"/>
+    <mergeCell ref="O129:Q129"/>
+    <mergeCell ref="R129:T129"/>
+    <mergeCell ref="U129:AF129"/>
+    <mergeCell ref="B127:H127"/>
+    <mergeCell ref="I127:L127"/>
+    <mergeCell ref="M127:N127"/>
+    <mergeCell ref="O127:Q127"/>
+    <mergeCell ref="R127:T127"/>
+    <mergeCell ref="U127:AF127"/>
+    <mergeCell ref="B128:H128"/>
+    <mergeCell ref="I128:L128"/>
+    <mergeCell ref="M128:N128"/>
+    <mergeCell ref="O128:Q128"/>
+    <mergeCell ref="R128:T128"/>
+    <mergeCell ref="U128:AF128"/>
+    <mergeCell ref="B125:H125"/>
+    <mergeCell ref="I125:L125"/>
+    <mergeCell ref="M125:N125"/>
+    <mergeCell ref="O125:Q125"/>
+    <mergeCell ref="R125:T125"/>
+    <mergeCell ref="U125:AF125"/>
+    <mergeCell ref="B126:H126"/>
+    <mergeCell ref="I126:L126"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="O126:Q126"/>
+    <mergeCell ref="R126:T126"/>
+    <mergeCell ref="U126:AF126"/>
+    <mergeCell ref="B121:H121"/>
+    <mergeCell ref="I121:L121"/>
+    <mergeCell ref="M121:N121"/>
+    <mergeCell ref="O121:Q121"/>
+    <mergeCell ref="R121:T121"/>
+    <mergeCell ref="U121:AF121"/>
+    <mergeCell ref="B122:H122"/>
+    <mergeCell ref="I122:L122"/>
+    <mergeCell ref="M122:N122"/>
+    <mergeCell ref="O122:Q122"/>
+    <mergeCell ref="R122:T122"/>
+    <mergeCell ref="U122:AF122"/>
+    <mergeCell ref="B120:H120"/>
+    <mergeCell ref="I120:L120"/>
+    <mergeCell ref="M120:N120"/>
+    <mergeCell ref="O120:Q120"/>
+    <mergeCell ref="U120:AF120"/>
+    <mergeCell ref="R120:T120"/>
+    <mergeCell ref="B119:H119"/>
+    <mergeCell ref="I119:L119"/>
+    <mergeCell ref="M119:N119"/>
+    <mergeCell ref="O119:Q119"/>
+    <mergeCell ref="R119:T119"/>
+    <mergeCell ref="U119:AF119"/>
+    <mergeCell ref="B113:H113"/>
+    <mergeCell ref="I113:L113"/>
+    <mergeCell ref="M113:N113"/>
+    <mergeCell ref="O113:Q113"/>
+    <mergeCell ref="U113:AF113"/>
+    <mergeCell ref="B118:H118"/>
+    <mergeCell ref="I118:L118"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="O118:Q118"/>
+    <mergeCell ref="R118:T118"/>
+    <mergeCell ref="U118:AF118"/>
+    <mergeCell ref="R113:T113"/>
+    <mergeCell ref="B114:H114"/>
+    <mergeCell ref="I114:L114"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="O114:Q114"/>
+    <mergeCell ref="R114:T114"/>
+    <mergeCell ref="U114:AF114"/>
+    <mergeCell ref="B115:H115"/>
+    <mergeCell ref="I115:L115"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="O115:Q115"/>
+    <mergeCell ref="R115:T115"/>
+    <mergeCell ref="U115:AF115"/>
+    <mergeCell ref="B111:H111"/>
+    <mergeCell ref="I111:L111"/>
+    <mergeCell ref="M111:N111"/>
+    <mergeCell ref="O111:Q111"/>
+    <mergeCell ref="R111:T111"/>
+    <mergeCell ref="U111:AF111"/>
+    <mergeCell ref="B112:H112"/>
+    <mergeCell ref="I112:L112"/>
+    <mergeCell ref="M112:N112"/>
+    <mergeCell ref="O112:Q112"/>
+    <mergeCell ref="R112:T112"/>
+    <mergeCell ref="U112:AF112"/>
+    <mergeCell ref="B109:H109"/>
+    <mergeCell ref="I109:L109"/>
+    <mergeCell ref="M109:N109"/>
+    <mergeCell ref="O109:Q109"/>
+    <mergeCell ref="R109:T109"/>
+    <mergeCell ref="U109:AF109"/>
+    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="I110:L110"/>
+    <mergeCell ref="M110:N110"/>
+    <mergeCell ref="O110:Q110"/>
+    <mergeCell ref="R110:T110"/>
+    <mergeCell ref="U110:AF110"/>
+    <mergeCell ref="M102:N102"/>
+    <mergeCell ref="O102:Q102"/>
+    <mergeCell ref="R102:T102"/>
+    <mergeCell ref="U102:AF102"/>
+    <mergeCell ref="M103:N103"/>
+    <mergeCell ref="O103:Q103"/>
+    <mergeCell ref="R103:T103"/>
+    <mergeCell ref="U103:AF103"/>
+    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="O104:Q104"/>
+    <mergeCell ref="R104:T104"/>
+    <mergeCell ref="U104:AF104"/>
+    <mergeCell ref="U67:AF67"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="B85:H85"/>
+    <mergeCell ref="I84:L84"/>
+    <mergeCell ref="I85:L85"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="O84:Q84"/>
+    <mergeCell ref="O85:Q85"/>
+    <mergeCell ref="R84:T84"/>
+    <mergeCell ref="R85:T85"/>
+    <mergeCell ref="U84:AF84"/>
+    <mergeCell ref="U85:AF85"/>
+    <mergeCell ref="R71:T71"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="I67:L67"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="R67:T67"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="I73:L73"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="O73:Q73"/>
+    <mergeCell ref="U73:AF73"/>
+    <mergeCell ref="U60:AF60"/>
+    <mergeCell ref="U61:AF61"/>
+    <mergeCell ref="U62:AF62"/>
+    <mergeCell ref="U63:AF63"/>
+    <mergeCell ref="U64:AF64"/>
+    <mergeCell ref="R60:T60"/>
+    <mergeCell ref="R61:T61"/>
+    <mergeCell ref="R62:T62"/>
+    <mergeCell ref="R63:T63"/>
+    <mergeCell ref="R64:T64"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="O64:Q64"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="O60:Q60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="O61:Q61"/>
+    <mergeCell ref="O62:Q62"/>
+    <mergeCell ref="O63:Q63"/>
+    <mergeCell ref="O65:Q65"/>
+    <mergeCell ref="O66:Q66"/>
+    <mergeCell ref="O69:Q69"/>
+    <mergeCell ref="O70:Q70"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="B72:H72"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="I69:L69"/>
+    <mergeCell ref="I70:L70"/>
+    <mergeCell ref="I71:L71"/>
+    <mergeCell ref="I72:L72"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="I68:L68"/>
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="I74:L74"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="O74:Q74"/>
+    <mergeCell ref="U74:AF74"/>
+    <mergeCell ref="U66:AF66"/>
+    <mergeCell ref="U65:AF65"/>
+    <mergeCell ref="U69:AF69"/>
+    <mergeCell ref="R65:T65"/>
+    <mergeCell ref="R66:T66"/>
+    <mergeCell ref="R69:T69"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O71:Q71"/>
+    <mergeCell ref="O72:Q72"/>
+    <mergeCell ref="U70:AF70"/>
+    <mergeCell ref="U71:AF71"/>
+    <mergeCell ref="U72:AF72"/>
+    <mergeCell ref="R70:T70"/>
+    <mergeCell ref="R72:T72"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="O68:Q68"/>
+    <mergeCell ref="R68:T68"/>
+    <mergeCell ref="U68:AF68"/>
+    <mergeCell ref="B78:H78"/>
+    <mergeCell ref="I78:L78"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="O78:Q78"/>
+    <mergeCell ref="U78:AF78"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="I77:L77"/>
+    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="O77:Q77"/>
+    <mergeCell ref="U77:AF77"/>
+    <mergeCell ref="B80:H80"/>
+    <mergeCell ref="I80:L80"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="O80:Q80"/>
+    <mergeCell ref="U80:AF80"/>
+    <mergeCell ref="R80:T80"/>
+    <mergeCell ref="B79:H79"/>
+    <mergeCell ref="I79:L79"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="O79:Q79"/>
+    <mergeCell ref="U79:AF79"/>
+    <mergeCell ref="R79:T79"/>
+    <mergeCell ref="O82:Q82"/>
+    <mergeCell ref="U82:AF82"/>
+    <mergeCell ref="R82:T82"/>
+    <mergeCell ref="B81:H81"/>
+    <mergeCell ref="I81:L81"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="O81:Q81"/>
+    <mergeCell ref="U81:AF81"/>
+    <mergeCell ref="R81:T81"/>
+    <mergeCell ref="U87:AF87"/>
+    <mergeCell ref="R87:T87"/>
+    <mergeCell ref="B86:H86"/>
+    <mergeCell ref="I86:L86"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="O86:Q86"/>
+    <mergeCell ref="U86:AF86"/>
+    <mergeCell ref="R86:T86"/>
+    <mergeCell ref="B83:H83"/>
+    <mergeCell ref="I83:L83"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="O83:Q83"/>
+    <mergeCell ref="U83:AF83"/>
+    <mergeCell ref="R83:T83"/>
+    <mergeCell ref="U92:AF92"/>
+    <mergeCell ref="R92:T92"/>
+    <mergeCell ref="B91:H91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="O91:Q91"/>
+    <mergeCell ref="U91:AF91"/>
+    <mergeCell ref="R91:T91"/>
+    <mergeCell ref="B90:H90"/>
+    <mergeCell ref="I90:L90"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="O90:Q90"/>
+    <mergeCell ref="U90:AF90"/>
+    <mergeCell ref="R90:T90"/>
+    <mergeCell ref="U93:AF93"/>
+    <mergeCell ref="R93:T93"/>
+    <mergeCell ref="U98:AF98"/>
+    <mergeCell ref="B95:H95"/>
+    <mergeCell ref="I95:L95"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="O95:Q95"/>
+    <mergeCell ref="U95:AF95"/>
+    <mergeCell ref="R95:T95"/>
+    <mergeCell ref="B94:H94"/>
+    <mergeCell ref="I94:L94"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="O94:Q94"/>
+    <mergeCell ref="U94:AF94"/>
+    <mergeCell ref="R94:T94"/>
+    <mergeCell ref="R73:T73"/>
+    <mergeCell ref="R74:T74"/>
+    <mergeCell ref="R77:T77"/>
+    <mergeCell ref="R78:T78"/>
+    <mergeCell ref="B98:H98"/>
+    <mergeCell ref="I98:L98"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="O98:Q98"/>
+    <mergeCell ref="R98:T98"/>
+    <mergeCell ref="B92:H92"/>
+    <mergeCell ref="I92:L92"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="O92:Q92"/>
+    <mergeCell ref="B87:H87"/>
+    <mergeCell ref="I87:L87"/>
+    <mergeCell ref="B93:H93"/>
+    <mergeCell ref="I93:L93"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="O93:Q93"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="O87:Q87"/>
+    <mergeCell ref="B82:H82"/>
+    <mergeCell ref="I82:L82"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="U99:AF99"/>
+    <mergeCell ref="B100:H100"/>
+    <mergeCell ref="I100:L100"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="O100:Q100"/>
+    <mergeCell ref="R100:T100"/>
+    <mergeCell ref="U100:AF100"/>
+    <mergeCell ref="B99:H99"/>
+    <mergeCell ref="I99:L99"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="O99:Q99"/>
+    <mergeCell ref="R99:T99"/>
     <mergeCell ref="U106:AF106"/>
     <mergeCell ref="B106:H106"/>
     <mergeCell ref="I106:L106"/>
@@ -5780,492 +6614,42 @@
     <mergeCell ref="I102:L102"/>
     <mergeCell ref="I103:L103"/>
     <mergeCell ref="I104:L104"/>
-    <mergeCell ref="U99:AF99"/>
-    <mergeCell ref="B100:H100"/>
-    <mergeCell ref="I100:L100"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="O100:Q100"/>
-    <mergeCell ref="R100:T100"/>
-    <mergeCell ref="U100:AF100"/>
-    <mergeCell ref="B99:H99"/>
-    <mergeCell ref="I99:L99"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="O99:Q99"/>
-    <mergeCell ref="R99:T99"/>
-    <mergeCell ref="R73:T73"/>
-    <mergeCell ref="R74:T74"/>
-    <mergeCell ref="R77:T77"/>
-    <mergeCell ref="R78:T78"/>
-    <mergeCell ref="B98:H98"/>
-    <mergeCell ref="I98:L98"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="O98:Q98"/>
-    <mergeCell ref="R98:T98"/>
-    <mergeCell ref="B92:H92"/>
-    <mergeCell ref="I92:L92"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="O92:Q92"/>
-    <mergeCell ref="B87:H87"/>
-    <mergeCell ref="I87:L87"/>
-    <mergeCell ref="B93:H93"/>
-    <mergeCell ref="I93:L93"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="O93:Q93"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="O87:Q87"/>
-    <mergeCell ref="B82:H82"/>
-    <mergeCell ref="I82:L82"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="U93:AF93"/>
-    <mergeCell ref="R93:T93"/>
-    <mergeCell ref="U98:AF98"/>
-    <mergeCell ref="B95:H95"/>
-    <mergeCell ref="I95:L95"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="O95:Q95"/>
-    <mergeCell ref="U95:AF95"/>
-    <mergeCell ref="R95:T95"/>
-    <mergeCell ref="B94:H94"/>
-    <mergeCell ref="I94:L94"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="O94:Q94"/>
-    <mergeCell ref="U94:AF94"/>
-    <mergeCell ref="R94:T94"/>
-    <mergeCell ref="U92:AF92"/>
-    <mergeCell ref="R92:T92"/>
-    <mergeCell ref="B91:H91"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="O91:Q91"/>
-    <mergeCell ref="U91:AF91"/>
-    <mergeCell ref="R91:T91"/>
-    <mergeCell ref="B90:H90"/>
-    <mergeCell ref="I90:L90"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="O90:Q90"/>
-    <mergeCell ref="U90:AF90"/>
-    <mergeCell ref="R90:T90"/>
-    <mergeCell ref="U87:AF87"/>
-    <mergeCell ref="R87:T87"/>
-    <mergeCell ref="B86:H86"/>
-    <mergeCell ref="I86:L86"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="O86:Q86"/>
-    <mergeCell ref="U86:AF86"/>
-    <mergeCell ref="R86:T86"/>
-    <mergeCell ref="B83:H83"/>
-    <mergeCell ref="I83:L83"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="O83:Q83"/>
-    <mergeCell ref="U83:AF83"/>
-    <mergeCell ref="R83:T83"/>
-    <mergeCell ref="O82:Q82"/>
-    <mergeCell ref="U82:AF82"/>
-    <mergeCell ref="R82:T82"/>
-    <mergeCell ref="B81:H81"/>
-    <mergeCell ref="I81:L81"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="O81:Q81"/>
-    <mergeCell ref="U81:AF81"/>
-    <mergeCell ref="R81:T81"/>
-    <mergeCell ref="B80:H80"/>
-    <mergeCell ref="I80:L80"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="O80:Q80"/>
-    <mergeCell ref="U80:AF80"/>
-    <mergeCell ref="R80:T80"/>
-    <mergeCell ref="B79:H79"/>
-    <mergeCell ref="I79:L79"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="O79:Q79"/>
-    <mergeCell ref="U79:AF79"/>
-    <mergeCell ref="R79:T79"/>
-    <mergeCell ref="B78:H78"/>
-    <mergeCell ref="I78:L78"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="O78:Q78"/>
-    <mergeCell ref="U78:AF78"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="I77:L77"/>
-    <mergeCell ref="M77:N77"/>
-    <mergeCell ref="O77:Q77"/>
-    <mergeCell ref="U77:AF77"/>
-    <mergeCell ref="B74:H74"/>
-    <mergeCell ref="I74:L74"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="O74:Q74"/>
-    <mergeCell ref="U74:AF74"/>
-    <mergeCell ref="U66:AF66"/>
-    <mergeCell ref="U65:AF65"/>
-    <mergeCell ref="U69:AF69"/>
-    <mergeCell ref="R65:T65"/>
-    <mergeCell ref="R66:T66"/>
-    <mergeCell ref="R69:T69"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O71:Q71"/>
-    <mergeCell ref="O72:Q72"/>
-    <mergeCell ref="U70:AF70"/>
-    <mergeCell ref="U71:AF71"/>
-    <mergeCell ref="U72:AF72"/>
-    <mergeCell ref="R70:T70"/>
-    <mergeCell ref="R72:T72"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="O68:Q68"/>
-    <mergeCell ref="R68:T68"/>
-    <mergeCell ref="U68:AF68"/>
-    <mergeCell ref="I64:L64"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="B72:H72"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="I69:L69"/>
-    <mergeCell ref="I70:L70"/>
-    <mergeCell ref="I71:L71"/>
-    <mergeCell ref="I72:L72"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="I68:L68"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="O64:Q64"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="I65:L65"/>
-    <mergeCell ref="O60:Q60"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="O61:Q61"/>
-    <mergeCell ref="O62:Q62"/>
-    <mergeCell ref="O63:Q63"/>
-    <mergeCell ref="O65:Q65"/>
-    <mergeCell ref="O66:Q66"/>
-    <mergeCell ref="O69:Q69"/>
-    <mergeCell ref="O70:Q70"/>
-    <mergeCell ref="I60:L60"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="U60:AF60"/>
-    <mergeCell ref="U61:AF61"/>
-    <mergeCell ref="U62:AF62"/>
-    <mergeCell ref="U63:AF63"/>
-    <mergeCell ref="U64:AF64"/>
-    <mergeCell ref="R60:T60"/>
-    <mergeCell ref="R61:T61"/>
-    <mergeCell ref="R62:T62"/>
-    <mergeCell ref="R63:T63"/>
-    <mergeCell ref="R64:T64"/>
-    <mergeCell ref="U67:AF67"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="B85:H85"/>
-    <mergeCell ref="I84:L84"/>
-    <mergeCell ref="I85:L85"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="O84:Q84"/>
-    <mergeCell ref="O85:Q85"/>
-    <mergeCell ref="R84:T84"/>
-    <mergeCell ref="R85:T85"/>
-    <mergeCell ref="U84:AF84"/>
-    <mergeCell ref="U85:AF85"/>
-    <mergeCell ref="R71:T71"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="I67:L67"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="O67:Q67"/>
-    <mergeCell ref="R67:T67"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="I73:L73"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="O73:Q73"/>
-    <mergeCell ref="U73:AF73"/>
-    <mergeCell ref="M102:N102"/>
-    <mergeCell ref="O102:Q102"/>
-    <mergeCell ref="R102:T102"/>
-    <mergeCell ref="U102:AF102"/>
-    <mergeCell ref="M103:N103"/>
-    <mergeCell ref="O103:Q103"/>
-    <mergeCell ref="R103:T103"/>
-    <mergeCell ref="U103:AF103"/>
-    <mergeCell ref="M104:N104"/>
-    <mergeCell ref="O104:Q104"/>
-    <mergeCell ref="R104:T104"/>
-    <mergeCell ref="U104:AF104"/>
-    <mergeCell ref="B109:H109"/>
-    <mergeCell ref="I109:L109"/>
-    <mergeCell ref="M109:N109"/>
-    <mergeCell ref="O109:Q109"/>
-    <mergeCell ref="R109:T109"/>
-    <mergeCell ref="U109:AF109"/>
-    <mergeCell ref="B110:H110"/>
-    <mergeCell ref="I110:L110"/>
-    <mergeCell ref="M110:N110"/>
-    <mergeCell ref="O110:Q110"/>
-    <mergeCell ref="R110:T110"/>
-    <mergeCell ref="U110:AF110"/>
-    <mergeCell ref="B111:H111"/>
-    <mergeCell ref="I111:L111"/>
-    <mergeCell ref="M111:N111"/>
-    <mergeCell ref="O111:Q111"/>
-    <mergeCell ref="R111:T111"/>
-    <mergeCell ref="U111:AF111"/>
-    <mergeCell ref="B112:H112"/>
-    <mergeCell ref="I112:L112"/>
-    <mergeCell ref="M112:N112"/>
-    <mergeCell ref="O112:Q112"/>
-    <mergeCell ref="R112:T112"/>
-    <mergeCell ref="U112:AF112"/>
-    <mergeCell ref="B113:H113"/>
-    <mergeCell ref="I113:L113"/>
-    <mergeCell ref="M113:N113"/>
-    <mergeCell ref="O113:Q113"/>
-    <mergeCell ref="U113:AF113"/>
-    <mergeCell ref="B118:H118"/>
-    <mergeCell ref="I118:L118"/>
-    <mergeCell ref="M118:N118"/>
-    <mergeCell ref="O118:Q118"/>
-    <mergeCell ref="R118:T118"/>
-    <mergeCell ref="U118:AF118"/>
-    <mergeCell ref="R113:T113"/>
-    <mergeCell ref="B114:H114"/>
-    <mergeCell ref="I114:L114"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="O114:Q114"/>
-    <mergeCell ref="R114:T114"/>
-    <mergeCell ref="U114:AF114"/>
-    <mergeCell ref="B115:H115"/>
-    <mergeCell ref="I115:L115"/>
-    <mergeCell ref="M115:N115"/>
-    <mergeCell ref="O115:Q115"/>
-    <mergeCell ref="R115:T115"/>
-    <mergeCell ref="U115:AF115"/>
-    <mergeCell ref="B120:H120"/>
-    <mergeCell ref="I120:L120"/>
-    <mergeCell ref="M120:N120"/>
-    <mergeCell ref="O120:Q120"/>
-    <mergeCell ref="U120:AF120"/>
-    <mergeCell ref="R120:T120"/>
-    <mergeCell ref="B119:H119"/>
-    <mergeCell ref="I119:L119"/>
-    <mergeCell ref="M119:N119"/>
-    <mergeCell ref="O119:Q119"/>
-    <mergeCell ref="R119:T119"/>
-    <mergeCell ref="U119:AF119"/>
-    <mergeCell ref="B121:H121"/>
-    <mergeCell ref="I121:L121"/>
-    <mergeCell ref="M121:N121"/>
-    <mergeCell ref="O121:Q121"/>
-    <mergeCell ref="R121:T121"/>
-    <mergeCell ref="U121:AF121"/>
-    <mergeCell ref="B122:H122"/>
-    <mergeCell ref="I122:L122"/>
-    <mergeCell ref="M122:N122"/>
-    <mergeCell ref="O122:Q122"/>
-    <mergeCell ref="R122:T122"/>
-    <mergeCell ref="U122:AF122"/>
-    <mergeCell ref="B125:H125"/>
-    <mergeCell ref="I125:L125"/>
-    <mergeCell ref="M125:N125"/>
-    <mergeCell ref="O125:Q125"/>
-    <mergeCell ref="R125:T125"/>
-    <mergeCell ref="U125:AF125"/>
-    <mergeCell ref="B126:H126"/>
-    <mergeCell ref="I126:L126"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="O126:Q126"/>
-    <mergeCell ref="R126:T126"/>
-    <mergeCell ref="U126:AF126"/>
-    <mergeCell ref="B129:H129"/>
-    <mergeCell ref="I129:L129"/>
-    <mergeCell ref="M129:N129"/>
-    <mergeCell ref="O129:Q129"/>
-    <mergeCell ref="R129:T129"/>
-    <mergeCell ref="U129:AF129"/>
-    <mergeCell ref="B127:H127"/>
-    <mergeCell ref="I127:L127"/>
-    <mergeCell ref="M127:N127"/>
-    <mergeCell ref="O127:Q127"/>
-    <mergeCell ref="R127:T127"/>
-    <mergeCell ref="U127:AF127"/>
-    <mergeCell ref="B128:H128"/>
-    <mergeCell ref="I128:L128"/>
-    <mergeCell ref="M128:N128"/>
-    <mergeCell ref="O128:Q128"/>
-    <mergeCell ref="R128:T128"/>
-    <mergeCell ref="U128:AF128"/>
-    <mergeCell ref="B130:H130"/>
-    <mergeCell ref="I130:L130"/>
-    <mergeCell ref="M130:N130"/>
-    <mergeCell ref="O130:Q130"/>
-    <mergeCell ref="R130:T130"/>
-    <mergeCell ref="U130:AF130"/>
-    <mergeCell ref="B133:H133"/>
-    <mergeCell ref="I133:L133"/>
-    <mergeCell ref="M133:N133"/>
-    <mergeCell ref="O133:Q133"/>
-    <mergeCell ref="R133:T133"/>
-    <mergeCell ref="U133:AF133"/>
-    <mergeCell ref="B134:H134"/>
-    <mergeCell ref="I134:L134"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="O134:Q134"/>
-    <mergeCell ref="R134:T134"/>
-    <mergeCell ref="U134:AF134"/>
-    <mergeCell ref="B135:H135"/>
-    <mergeCell ref="I135:L135"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="O135:Q135"/>
-    <mergeCell ref="R135:T135"/>
-    <mergeCell ref="U135:AF135"/>
-    <mergeCell ref="B136:H136"/>
-    <mergeCell ref="I136:L136"/>
-    <mergeCell ref="M136:N136"/>
-    <mergeCell ref="O136:Q136"/>
-    <mergeCell ref="R136:T136"/>
-    <mergeCell ref="U136:AF136"/>
-    <mergeCell ref="B137:H137"/>
-    <mergeCell ref="I137:L137"/>
-    <mergeCell ref="M137:N137"/>
-    <mergeCell ref="O137:Q137"/>
-    <mergeCell ref="R137:T137"/>
-    <mergeCell ref="U137:AF137"/>
-    <mergeCell ref="B140:H140"/>
-    <mergeCell ref="I140:L140"/>
-    <mergeCell ref="M140:N140"/>
-    <mergeCell ref="O140:Q140"/>
-    <mergeCell ref="R140:T140"/>
-    <mergeCell ref="U140:AF140"/>
-    <mergeCell ref="B141:H141"/>
-    <mergeCell ref="I141:L141"/>
-    <mergeCell ref="M141:N141"/>
-    <mergeCell ref="O141:Q141"/>
-    <mergeCell ref="R141:T141"/>
-    <mergeCell ref="U141:AF141"/>
-    <mergeCell ref="B142:H142"/>
-    <mergeCell ref="I142:L142"/>
-    <mergeCell ref="M142:N142"/>
-    <mergeCell ref="O142:Q142"/>
-    <mergeCell ref="R142:T142"/>
-    <mergeCell ref="U142:AF142"/>
-    <mergeCell ref="B143:H143"/>
-    <mergeCell ref="I143:L143"/>
-    <mergeCell ref="M143:N143"/>
-    <mergeCell ref="O143:Q143"/>
-    <mergeCell ref="R143:T143"/>
-    <mergeCell ref="U143:AF143"/>
-    <mergeCell ref="B144:H144"/>
-    <mergeCell ref="I144:L144"/>
-    <mergeCell ref="M144:N144"/>
-    <mergeCell ref="O144:Q144"/>
-    <mergeCell ref="R144:T144"/>
-    <mergeCell ref="U144:AF144"/>
-    <mergeCell ref="B145:H145"/>
-    <mergeCell ref="I145:L145"/>
-    <mergeCell ref="M145:N145"/>
-    <mergeCell ref="O145:Q145"/>
-    <mergeCell ref="R145:T145"/>
-    <mergeCell ref="U145:AF145"/>
-    <mergeCell ref="B148:H148"/>
-    <mergeCell ref="I148:L148"/>
-    <mergeCell ref="M148:N148"/>
-    <mergeCell ref="O148:Q148"/>
-    <mergeCell ref="R148:T148"/>
-    <mergeCell ref="U148:AF148"/>
-    <mergeCell ref="B149:H149"/>
-    <mergeCell ref="I149:L149"/>
-    <mergeCell ref="M149:N149"/>
-    <mergeCell ref="O149:Q149"/>
-    <mergeCell ref="R149:T149"/>
-    <mergeCell ref="U149:AF149"/>
-    <mergeCell ref="B150:H150"/>
-    <mergeCell ref="I150:L150"/>
-    <mergeCell ref="M150:N150"/>
-    <mergeCell ref="O150:Q150"/>
-    <mergeCell ref="R150:T150"/>
-    <mergeCell ref="U150:AF150"/>
-    <mergeCell ref="B151:H151"/>
-    <mergeCell ref="I151:L151"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="O151:Q151"/>
-    <mergeCell ref="R151:T151"/>
-    <mergeCell ref="U151:AF151"/>
-    <mergeCell ref="B153:H153"/>
-    <mergeCell ref="I153:L153"/>
-    <mergeCell ref="M153:N153"/>
-    <mergeCell ref="O153:Q153"/>
-    <mergeCell ref="R153:T153"/>
-    <mergeCell ref="U153:AF153"/>
-    <mergeCell ref="B154:H154"/>
-    <mergeCell ref="I154:L154"/>
-    <mergeCell ref="M154:N154"/>
-    <mergeCell ref="O154:Q154"/>
-    <mergeCell ref="R154:T154"/>
-    <mergeCell ref="U154:AF154"/>
-    <mergeCell ref="B157:H157"/>
-    <mergeCell ref="I157:L157"/>
-    <mergeCell ref="M157:N157"/>
-    <mergeCell ref="O157:Q157"/>
-    <mergeCell ref="R157:T157"/>
-    <mergeCell ref="U157:AF157"/>
-    <mergeCell ref="B152:H152"/>
-    <mergeCell ref="I152:L152"/>
-    <mergeCell ref="M152:N152"/>
-    <mergeCell ref="O152:Q152"/>
-    <mergeCell ref="R152:T152"/>
-    <mergeCell ref="U152:AF152"/>
-    <mergeCell ref="B155:H155"/>
-    <mergeCell ref="I155:L155"/>
-    <mergeCell ref="M155:N155"/>
-    <mergeCell ref="O155:Q155"/>
-    <mergeCell ref="R155:T155"/>
-    <mergeCell ref="U155:AF155"/>
-    <mergeCell ref="B156:H156"/>
-    <mergeCell ref="I156:L156"/>
-    <mergeCell ref="M156:N156"/>
-    <mergeCell ref="O156:Q156"/>
-    <mergeCell ref="R156:T156"/>
-    <mergeCell ref="U156:AF156"/>
-    <mergeCell ref="B160:H160"/>
-    <mergeCell ref="I160:L160"/>
-    <mergeCell ref="M160:N160"/>
-    <mergeCell ref="O160:Q160"/>
-    <mergeCell ref="R160:T160"/>
-    <mergeCell ref="U160:AF160"/>
-    <mergeCell ref="B161:H161"/>
-    <mergeCell ref="I161:L161"/>
-    <mergeCell ref="M161:N161"/>
-    <mergeCell ref="O161:Q161"/>
-    <mergeCell ref="R161:T161"/>
-    <mergeCell ref="U161:AF161"/>
-    <mergeCell ref="B164:H164"/>
-    <mergeCell ref="I164:L164"/>
-    <mergeCell ref="M164:N164"/>
-    <mergeCell ref="O164:Q164"/>
-    <mergeCell ref="R164:T164"/>
-    <mergeCell ref="U164:AF164"/>
-    <mergeCell ref="B162:H162"/>
-    <mergeCell ref="I162:L162"/>
-    <mergeCell ref="M162:N162"/>
-    <mergeCell ref="O162:Q162"/>
-    <mergeCell ref="R162:T162"/>
-    <mergeCell ref="U162:AF162"/>
-    <mergeCell ref="B163:H163"/>
-    <mergeCell ref="I163:L163"/>
-    <mergeCell ref="M163:N163"/>
-    <mergeCell ref="O163:Q163"/>
-    <mergeCell ref="R163:T163"/>
-    <mergeCell ref="U163:AF163"/>
+    <mergeCell ref="B167:H167"/>
+    <mergeCell ref="I167:L167"/>
+    <mergeCell ref="M167:N167"/>
+    <mergeCell ref="O167:Q167"/>
+    <mergeCell ref="R167:T167"/>
+    <mergeCell ref="U167:AF167"/>
+    <mergeCell ref="B168:H168"/>
+    <mergeCell ref="I168:L168"/>
+    <mergeCell ref="M168:N168"/>
+    <mergeCell ref="O168:Q168"/>
+    <mergeCell ref="R168:T168"/>
+    <mergeCell ref="U168:AF168"/>
+    <mergeCell ref="B169:H169"/>
+    <mergeCell ref="I169:L169"/>
+    <mergeCell ref="M169:N169"/>
+    <mergeCell ref="O169:Q169"/>
+    <mergeCell ref="R169:T169"/>
+    <mergeCell ref="U169:AF169"/>
+    <mergeCell ref="B171:H171"/>
+    <mergeCell ref="I171:L171"/>
+    <mergeCell ref="M171:N171"/>
+    <mergeCell ref="O171:Q171"/>
+    <mergeCell ref="R171:T171"/>
+    <mergeCell ref="U171:AF171"/>
+    <mergeCell ref="B172:H172"/>
+    <mergeCell ref="I172:L172"/>
+    <mergeCell ref="M172:N172"/>
+    <mergeCell ref="O172:Q172"/>
+    <mergeCell ref="R172:T172"/>
+    <mergeCell ref="U172:AF172"/>
+    <mergeCell ref="I170:L170"/>
+    <mergeCell ref="M170:N170"/>
+    <mergeCell ref="O170:Q170"/>
+    <mergeCell ref="R170:T170"/>
+    <mergeCell ref="U170:AF170"/>
+    <mergeCell ref="B170:H170"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
